--- a/Code/Results/Cases/Case_2_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.190868246178468</v>
+        <v>0.7154053167776624</v>
       </c>
       <c r="C2">
-        <v>0.4994889060168362</v>
+        <v>0.1770292306925967</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9495521490671877</v>
+        <v>0.8077042195962889</v>
       </c>
       <c r="F2">
-        <v>1.915494578941349</v>
+        <v>1.98919547651596</v>
       </c>
       <c r="G2">
-        <v>0.2165419037380474</v>
+        <v>0.2316775927200041</v>
       </c>
       <c r="H2">
-        <v>0.1723584838107897</v>
+        <v>0.3994847428385029</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01475470128441891</v>
+        <v>0.02288687042903703</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8087868075301969</v>
+        <v>0.8629917256815958</v>
       </c>
       <c r="O2">
-        <v>0.7714132454829468</v>
+        <v>1.176644007352508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.90937169648484</v>
+        <v>0.6271257959401737</v>
       </c>
       <c r="C3">
-        <v>0.4430421424152939</v>
+        <v>0.1585651896770912</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8377383590780596</v>
+        <v>0.7828031414453989</v>
       </c>
       <c r="F3">
-        <v>1.713133299822346</v>
+        <v>1.953259537971689</v>
       </c>
       <c r="G3">
-        <v>0.1965596317782143</v>
+        <v>0.2300315429398125</v>
       </c>
       <c r="H3">
-        <v>0.1688000469055737</v>
+        <v>0.402453762122299</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01380287484608367</v>
+        <v>0.02294979719200541</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7861971495555764</v>
+        <v>0.8575136044288314</v>
       </c>
       <c r="O3">
-        <v>0.721243731791759</v>
+        <v>1.179113091472573</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.736478930213849</v>
+        <v>0.5727779517782494</v>
       </c>
       <c r="C4">
-        <v>0.4083178759280486</v>
+        <v>0.1471688742461481</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7701579854742562</v>
+        <v>0.7679053570022631</v>
       </c>
       <c r="F4">
-        <v>1.592082861371594</v>
+        <v>1.932451238492092</v>
       </c>
       <c r="G4">
-        <v>0.1850180325315307</v>
+        <v>0.2292751221624698</v>
       </c>
       <c r="H4">
-        <v>0.1670764893868935</v>
+        <v>0.4045180687315906</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01326938242265818</v>
+        <v>0.02300880137955552</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7731175789757714</v>
+        <v>0.8544993169160904</v>
       </c>
       <c r="O4">
-        <v>0.6929389705298235</v>
+        <v>1.181664448710094</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.66599280523937</v>
+        <v>0.5505960729733204</v>
       </c>
       <c r="C5">
-        <v>0.3941485726565759</v>
+        <v>0.1425102232924758</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7428601623502544</v>
+        <v>0.761932780931744</v>
       </c>
       <c r="F5">
-        <v>1.543488590325694</v>
+        <v>1.924287061634971</v>
       </c>
       <c r="G5">
-        <v>0.1804840546665005</v>
+        <v>0.2290305354598701</v>
       </c>
       <c r="H5">
-        <v>0.16648408248696</v>
+        <v>0.4054199217971899</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01306390041842675</v>
+        <v>0.02303795105700601</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7679788094724813</v>
+        <v>0.8533591653662711</v>
       </c>
       <c r="O5">
-        <v>0.6819914685127344</v>
+        <v>1.182963796545678</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.654286278275038</v>
+        <v>0.5469107374038913</v>
       </c>
       <c r="C6">
-        <v>0.3917945654716561</v>
+        <v>0.1417357889787354</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7383411886578415</v>
+        <v>0.7609469798131414</v>
       </c>
       <c r="F6">
-        <v>1.535461962744648</v>
+        <v>1.922950437108568</v>
       </c>
       <c r="G6">
-        <v>0.1797410318065786</v>
+        <v>0.2289937589268689</v>
       </c>
       <c r="H6">
-        <v>0.1663921838713733</v>
+        <v>0.4055733343482899</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01303047523408729</v>
+        <v>0.02304309918715397</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7671368603894848</v>
+        <v>0.8531751815471296</v>
       </c>
       <c r="O6">
-        <v>0.6802079163885395</v>
+        <v>1.183195214130308</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.735528477310368</v>
+        <v>0.5724789376971842</v>
       </c>
       <c r="C7">
-        <v>0.4081268631626926</v>
+        <v>0.1471061045284046</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7697888947327982</v>
+        <v>0.767824410463831</v>
       </c>
       <c r="F7">
-        <v>1.591424616336752</v>
+        <v>1.932339857390161</v>
       </c>
       <c r="G7">
-        <v>0.1849562176821919</v>
+        <v>0.2292715661850906</v>
       </c>
       <c r="H7">
-        <v>0.1670680625382346</v>
+        <v>0.4045299860100755</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01326656409212212</v>
+        <v>0.02300917385375989</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7730475109621437</v>
+        <v>0.8544835828540016</v>
       </c>
       <c r="O7">
-        <v>0.6927890057162074</v>
+        <v>1.181680921782473</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.0938080850093</v>
+        <v>0.6849972589871527</v>
       </c>
       <c r="C8">
-        <v>0.4800382010774626</v>
+        <v>0.1706753492635755</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9107582465510831</v>
+        <v>0.7990370013544634</v>
       </c>
       <c r="F8">
-        <v>1.845012687846392</v>
+        <v>1.976543605612846</v>
       </c>
       <c r="G8">
-        <v>0.2094925673933759</v>
+        <v>0.2310570964286711</v>
       </c>
       <c r="H8">
-        <v>0.1710320436014641</v>
+        <v>0.4004583451435764</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01441539108812506</v>
+        <v>0.02290433048027651</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.80082913382887</v>
+        <v>0.8610305828508871</v>
       </c>
       <c r="O8">
-        <v>0.753570293315164</v>
+        <v>1.177280044782364</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.796869713406977</v>
+        <v>0.9044491442074332</v>
       </c>
       <c r="C9">
-        <v>0.6206592310495864</v>
+        <v>0.2164103471588135</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.1971096829445</v>
+        <v>0.8633592775955066</v>
       </c>
       <c r="F9">
-        <v>2.371098572388135</v>
+        <v>2.073230667863442</v>
       </c>
       <c r="G9">
-        <v>0.2640350562283089</v>
+        <v>0.2365889381735542</v>
       </c>
       <c r="H9">
-        <v>0.1827554840183296</v>
+        <v>0.3943910497924179</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.017115005218308</v>
+        <v>0.02286110591126445</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8619466746448836</v>
+        <v>0.8766266995901901</v>
       </c>
       <c r="O9">
-        <v>0.8945876666292349</v>
+        <v>1.176897715459233</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.31509604665365</v>
+        <v>1.064893091331385</v>
       </c>
       <c r="C10">
-        <v>0.723933417115262</v>
+        <v>0.2497015699131566</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.415660714626554</v>
+        <v>0.9125319068949409</v>
       </c>
       <c r="F10">
-        <v>2.780325986454955</v>
+        <v>2.150422525640693</v>
       </c>
       <c r="G10">
-        <v>0.3089957232937763</v>
+        <v>0.241909776185139</v>
       </c>
       <c r="H10">
-        <v>0.194206290390639</v>
+        <v>0.3911058357879398</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01943433300109376</v>
+        <v>0.02292944514429962</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9114418541006017</v>
+        <v>0.8897498550976337</v>
       </c>
       <c r="O10">
-        <v>1.014456251801931</v>
+        <v>1.181692783589995</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.551560261189991</v>
+        <v>1.137700887438825</v>
       </c>
       <c r="C11">
-        <v>0.7709578771348049</v>
+        <v>0.2647762359464423</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.517386327093092</v>
+        <v>0.9353215826878625</v>
       </c>
       <c r="F11">
-        <v>2.972689281106369</v>
+        <v>2.186888856881041</v>
       </c>
       <c r="G11">
-        <v>0.3307437395169472</v>
+        <v>0.2446073002337243</v>
       </c>
       <c r="H11">
-        <v>0.2001347676177829</v>
+        <v>0.3898667043965105</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02057774667964551</v>
+        <v>0.02298251090132197</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9350860105923005</v>
+        <v>0.8960781867138365</v>
       </c>
       <c r="O11">
-        <v>1.073228551989274</v>
+        <v>1.184986821095066</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.641237034487176</v>
+        <v>1.16524427444898</v>
       </c>
       <c r="C12">
-        <v>0.7887757599109761</v>
+        <v>0.2704742797189965</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.55628740018085</v>
+        <v>0.9440121463445479</v>
       </c>
       <c r="F12">
-        <v>3.046540118421518</v>
+        <v>2.200892877802517</v>
       </c>
       <c r="G12">
-        <v>0.3391864174773644</v>
+        <v>0.2456689326386652</v>
       </c>
       <c r="H12">
-        <v>0.2024925055066262</v>
+        <v>0.3894342576428187</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02102482649185333</v>
+        <v>0.02300578473407811</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9442133168365388</v>
+        <v>0.8985258166780454</v>
       </c>
       <c r="O12">
-        <v>1.096158415689047</v>
+        <v>1.186394997375146</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.621917130456552</v>
+        <v>1.159313555023402</v>
       </c>
       <c r="C13">
-        <v>0.7849378081731118</v>
+        <v>0.2692475729319312</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.547891645765574</v>
+        <v>0.9421377808210423</v>
       </c>
       <c r="F13">
-        <v>3.030588285112998</v>
+        <v>2.197868177090385</v>
       </c>
       <c r="G13">
-        <v>0.3373585705672326</v>
+        <v>0.245438501172643</v>
       </c>
       <c r="H13">
-        <v>0.201979553923195</v>
+        <v>0.389525755640264</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0209278896401095</v>
+        <v>0.02300063061584723</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9422396677271081</v>
+        <v>0.8979964025749325</v>
       </c>
       <c r="O13">
-        <v>1.091189009140578</v>
+        <v>1.186084557490574</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.558935182264236</v>
+        <v>1.139967455713247</v>
       </c>
       <c r="C14">
-        <v>0.7724235232725789</v>
+        <v>0.2652452281732565</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.520578836354403</v>
+        <v>0.9360353453452035</v>
       </c>
       <c r="F14">
-        <v>2.978744154671404</v>
+        <v>2.188037063810782</v>
       </c>
       <c r="G14">
-        <v>0.331434045841732</v>
+        <v>0.244693835221895</v>
       </c>
       <c r="H14">
-        <v>0.2003264245602168</v>
+        <v>0.3898303891093065</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02061423736435941</v>
+        <v>0.0229843618352632</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9358333681206972</v>
+        <v>0.8962785298841993</v>
       </c>
       <c r="O14">
-        <v>1.075101112645967</v>
+        <v>1.185099445524685</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.520375144052593</v>
+        <v>1.128113802397536</v>
       </c>
       <c r="C15">
-        <v>0.7647596980022229</v>
+        <v>0.2627923099774989</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.503899927282077</v>
+        <v>0.9323053233154326</v>
       </c>
       <c r="F15">
-        <v>2.94712286791389</v>
+        <v>2.182040639954948</v>
       </c>
       <c r="G15">
-        <v>0.3278327330144464</v>
+        <v>0.2442429419251368</v>
       </c>
       <c r="H15">
-        <v>0.1993288070834751</v>
+        <v>0.3900217785145088</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02042399496812308</v>
+        <v>0.02297481128681866</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9319323103557053</v>
+        <v>0.8952329449862049</v>
       </c>
       <c r="O15">
-        <v>1.0653365759145</v>
+        <v>1.184516999642199</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.299659496981121</v>
+        <v>1.060131191661128</v>
       </c>
       <c r="C16">
-        <v>0.7208615141013581</v>
+        <v>0.2487149699502709</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.409063116537524</v>
+        <v>0.9110510238204483</v>
       </c>
       <c r="F16">
-        <v>2.767889012760293</v>
+        <v>2.148066616789748</v>
       </c>
       <c r="G16">
-        <v>0.3076022541078771</v>
+        <v>0.2417390871764269</v>
       </c>
       <c r="H16">
-        <v>0.1938341059767907</v>
+        <v>0.3911919597403255</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01936150214895704</v>
+        <v>0.02292642101274467</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9099203266084572</v>
+        <v>0.8893434702001741</v>
       </c>
       <c r="O16">
-        <v>1.010706080386257</v>
+        <v>1.181499968792508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.164462155515366</v>
+        <v>1.018379078043893</v>
       </c>
       <c r="C17">
-        <v>0.6939457431908522</v>
+        <v>0.2400608568329972</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.351507166361159</v>
+        <v>0.8981200448727407</v>
       </c>
       <c r="F17">
-        <v>2.659602265309019</v>
+        <v>2.127571259614371</v>
       </c>
       <c r="G17">
-        <v>0.2955376269606802</v>
+        <v>0.2402742253854626</v>
       </c>
       <c r="H17">
-        <v>0.1906539440247883</v>
+        <v>0.3919752732322621</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01873327731606267</v>
+        <v>0.02290237743917345</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8967136659234853</v>
+        <v>0.885822062884273</v>
       </c>
       <c r="O17">
-        <v>0.9783228012184395</v>
+        <v>1.179934676174014</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.086766127283511</v>
+        <v>0.9943476179778941</v>
       </c>
       <c r="C18">
-        <v>0.6784684069307048</v>
+        <v>0.2350767043695328</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.318616364289781</v>
+        <v>0.8907220894651005</v>
       </c>
       <c r="F18">
-        <v>2.597895031369433</v>
+        <v>2.115910027996847</v>
       </c>
       <c r="G18">
-        <v>0.2887189359167337</v>
+        <v>0.2394577348678837</v>
       </c>
       <c r="H18">
-        <v>0.1888919193194596</v>
+        <v>0.3924498430391878</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01838016423517885</v>
+        <v>0.02289061576399831</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8892230342622582</v>
+        <v>0.8838304095637852</v>
       </c>
       <c r="O18">
-        <v>0.9600921070789639</v>
+        <v>1.179139050459781</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.060470056190127</v>
+        <v>0.9862081511008682</v>
       </c>
       <c r="C19">
-        <v>0.6732285925423582</v>
+        <v>0.2333880452768256</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.307515441936204</v>
+        <v>0.8882240675863358</v>
       </c>
       <c r="F19">
-        <v>2.577097694206969</v>
+        <v>2.111983553590335</v>
       </c>
       <c r="G19">
-        <v>0.2864303395355137</v>
+        <v>0.2391857517704636</v>
       </c>
       <c r="H19">
-        <v>0.1883065843310874</v>
+        <v>0.3926146490457114</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01826197836377119</v>
+        <v>0.02288698800111888</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8867046158024863</v>
+        <v>0.8831618796414347</v>
       </c>
       <c r="O19">
-        <v>0.9539855361983314</v>
+        <v>1.178887621777847</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.178847118278156</v>
+        <v>1.022825406917832</v>
       </c>
       <c r="C20">
-        <v>0.6968105390336632</v>
+        <v>0.2409827811434013</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.357611627875414</v>
+        <v>0.8994924703360141</v>
       </c>
       <c r="F20">
-        <v>2.671069116130809</v>
+        <v>2.129739860259406</v>
       </c>
       <c r="G20">
-        <v>0.2968093027919991</v>
+        <v>0.2404274632181966</v>
       </c>
       <c r="H20">
-        <v>0.1909854659336645</v>
+        <v>0.3918894008000677</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0187992919297777</v>
+        <v>0.02290472279982936</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8981085389283407</v>
+        <v>0.8861934303507155</v>
       </c>
       <c r="O20">
-        <v>0.9817286964136542</v>
+        <v>1.1800904636072</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.577430653262354</v>
+        <v>1.145650628992655</v>
       </c>
       <c r="C21">
-        <v>0.7760989436634134</v>
+        <v>0.2664210993029883</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.528590554218482</v>
+        <v>0.9378261328919706</v>
       </c>
       <c r="F21">
-        <v>2.99394373226329</v>
+        <v>2.190919401998769</v>
       </c>
       <c r="G21">
-        <v>0.3331684246793003</v>
+        <v>0.2449114699311679</v>
       </c>
       <c r="H21">
-        <v>0.2008088509481922</v>
+        <v>0.3897399119752549</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02070597047883993</v>
+        <v>0.0229890539460591</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9377102417544592</v>
+        <v>0.8967817230177531</v>
       </c>
       <c r="O21">
-        <v>1.079807689889805</v>
+        <v>1.18538442658496</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.838718283219407</v>
+        <v>1.225763878981695</v>
       </c>
       <c r="C22">
-        <v>0.8279834669924071</v>
+        <v>0.2829856840838545</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.642574919651182</v>
+        <v>0.963232714947253</v>
       </c>
       <c r="F22">
-        <v>3.210892045218969</v>
+        <v>2.232040774884211</v>
       </c>
       <c r="G22">
-        <v>0.3581497210808493</v>
+        <v>0.2480761242624396</v>
       </c>
       <c r="H22">
-        <v>0.2078910595598984</v>
+        <v>0.3885495426321484</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02203497583041525</v>
+        <v>0.02306270739433103</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9646110706525803</v>
+        <v>0.9040002322341962</v>
       </c>
       <c r="O22">
-        <v>1.147870310278705</v>
+        <v>1.189781941610534</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.699181458503062</v>
+        <v>1.183021112850838</v>
       </c>
       <c r="C23">
-        <v>0.8002842157663395</v>
+        <v>0.2741505460632538</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.581517129134937</v>
+        <v>0.9496403823119834</v>
       </c>
       <c r="F23">
-        <v>3.094519099275857</v>
+        <v>2.209989259784066</v>
       </c>
       <c r="G23">
-        <v>0.3446978864732841</v>
+        <v>0.2463655701283614</v>
       </c>
       <c r="H23">
-        <v>0.204047307550681</v>
+        <v>0.3891652203658964</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02131758678727635</v>
+        <v>0.02302169477701455</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9501563598636125</v>
+        <v>0.9001203774456741</v>
       </c>
       <c r="O23">
-        <v>1.111159021208238</v>
+        <v>1.187348855107473</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.172343583096222</v>
+        <v>1.020815307524686</v>
       </c>
       <c r="C24">
-        <v>0.6955153748139082</v>
+        <v>0.2405660065065547</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.354851184942675</v>
+        <v>0.8988718839173089</v>
       </c>
       <c r="F24">
-        <v>2.665883253726065</v>
+        <v>2.128759056484796</v>
       </c>
       <c r="G24">
-        <v>0.2962340139625752</v>
+        <v>0.2403581044312517</v>
       </c>
       <c r="H24">
-        <v>0.1908353790855983</v>
+        <v>0.3919281482475441</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01876942171610096</v>
+        <v>0.02290365604326183</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8974775998286759</v>
+        <v>0.8860254327648107</v>
       </c>
       <c r="O24">
-        <v>0.9801876909059217</v>
+        <v>1.180019707332491</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.606484574128785</v>
+        <v>0.8452156840631346</v>
       </c>
       <c r="C25">
-        <v>0.5826403595590079</v>
+        <v>0.2040912224809404</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.118374882413718</v>
+        <v>0.8456232885102395</v>
       </c>
       <c r="F25">
-        <v>2.225188500796989</v>
+        <v>2.045997381604039</v>
       </c>
       <c r="G25">
-        <v>0.2484957060428314</v>
+        <v>0.2348731122920285</v>
       </c>
       <c r="H25">
-        <v>0.1791185537139341</v>
+        <v>0.3958267888412763</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0163305782060128</v>
+        <v>0.02285530151278792</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8446480323568153</v>
+        <v>0.8721140438009769</v>
       </c>
       <c r="O25">
-        <v>0.853809162995546</v>
+        <v>1.176113209035009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7154053167776624</v>
+        <v>2.190868246178354</v>
       </c>
       <c r="C2">
-        <v>0.1770292306925967</v>
+        <v>0.4994889060168077</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8077042195962889</v>
+        <v>0.949552149067145</v>
       </c>
       <c r="F2">
-        <v>1.98919547651596</v>
+        <v>1.915494578941349</v>
       </c>
       <c r="G2">
-        <v>0.2316775927200041</v>
+        <v>0.2165419037379337</v>
       </c>
       <c r="H2">
-        <v>0.3994847428385029</v>
+        <v>0.1723584838107897</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02288687042903703</v>
+        <v>0.0147547012844278</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8629917256815958</v>
+        <v>0.8087868075301969</v>
       </c>
       <c r="O2">
-        <v>1.176644007352508</v>
+        <v>0.7714132454829752</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6271257959401737</v>
+        <v>1.909371696484754</v>
       </c>
       <c r="C3">
-        <v>0.1585651896770912</v>
+        <v>0.443042142415095</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7828031414453989</v>
+        <v>0.8377383590780596</v>
       </c>
       <c r="F3">
-        <v>1.953259537971689</v>
+        <v>1.713133299822346</v>
       </c>
       <c r="G3">
-        <v>0.2300315429398125</v>
+        <v>0.1965596317782641</v>
       </c>
       <c r="H3">
-        <v>0.402453762122299</v>
+        <v>0.1688000469056874</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02294979719200541</v>
+        <v>0.01380287484608367</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8575136044288314</v>
+        <v>0.7861971495555622</v>
       </c>
       <c r="O3">
-        <v>1.179113091472573</v>
+        <v>0.721243731791759</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5727779517782494</v>
+        <v>1.736478930213991</v>
       </c>
       <c r="C4">
-        <v>0.1471688742461481</v>
+        <v>0.4083178759284181</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7679053570022631</v>
+        <v>0.770157985474242</v>
       </c>
       <c r="F4">
-        <v>1.932451238492092</v>
+        <v>1.592082861371608</v>
       </c>
       <c r="G4">
-        <v>0.2292751221624698</v>
+        <v>0.1850180325315947</v>
       </c>
       <c r="H4">
-        <v>0.4045180687315906</v>
+        <v>0.1670764893868935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02300880137955552</v>
+        <v>0.01326938242275055</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8544993169160904</v>
+        <v>0.7731175789757714</v>
       </c>
       <c r="O4">
-        <v>1.181664448710094</v>
+        <v>0.6929389705298235</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5505960729733204</v>
+        <v>1.66599280523937</v>
       </c>
       <c r="C5">
-        <v>0.1425102232924758</v>
+        <v>0.3941485726565759</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.761932780931744</v>
+        <v>0.742860162350226</v>
       </c>
       <c r="F5">
-        <v>1.924287061634971</v>
+        <v>1.543488590325694</v>
       </c>
       <c r="G5">
-        <v>0.2290305354598701</v>
+        <v>0.1804840546665503</v>
       </c>
       <c r="H5">
-        <v>0.4054199217971899</v>
+        <v>0.1664840824868605</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02303795105700601</v>
+        <v>0.01306390041844629</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8533591653662711</v>
+        <v>0.7679788094724955</v>
       </c>
       <c r="O5">
-        <v>1.182963796545678</v>
+        <v>0.6819914685127344</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5469107374038913</v>
+        <v>1.654286278274839</v>
       </c>
       <c r="C6">
-        <v>0.1417357889787354</v>
+        <v>0.3917945654715425</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7609469798131414</v>
+        <v>0.7383411886578415</v>
       </c>
       <c r="F6">
-        <v>1.922950437108568</v>
+        <v>1.535461962744662</v>
       </c>
       <c r="G6">
-        <v>0.2289937589268689</v>
+        <v>0.1797410318066355</v>
       </c>
       <c r="H6">
-        <v>0.4055733343482899</v>
+        <v>0.1663921838712454</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02304309918715397</v>
+        <v>0.01303047523403755</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8531751815471296</v>
+        <v>0.767136860389428</v>
       </c>
       <c r="O6">
-        <v>1.183195214130308</v>
+        <v>0.6802079163884542</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5724789376971842</v>
+        <v>1.735528477310197</v>
       </c>
       <c r="C7">
-        <v>0.1471061045284046</v>
+        <v>0.4081268631628348</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.767824410463831</v>
+        <v>0.7697888947327982</v>
       </c>
       <c r="F7">
-        <v>1.932339857390161</v>
+        <v>1.591424616336752</v>
       </c>
       <c r="G7">
-        <v>0.2292715661850906</v>
+        <v>0.1849562176821422</v>
       </c>
       <c r="H7">
-        <v>0.4045299860100755</v>
+        <v>0.1670680625382346</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02300917385375989</v>
+        <v>0.01326656409217541</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8544835828540016</v>
+        <v>0.7730475109621437</v>
       </c>
       <c r="O7">
-        <v>1.181680921782473</v>
+        <v>0.692789005716179</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6849972589871527</v>
+        <v>2.093808085009357</v>
       </c>
       <c r="C8">
-        <v>0.1706753492635755</v>
+        <v>0.4800382010775195</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7990370013544634</v>
+        <v>0.9107582465510831</v>
       </c>
       <c r="F8">
-        <v>1.976543605612846</v>
+        <v>1.845012687846392</v>
       </c>
       <c r="G8">
-        <v>0.2310570964286711</v>
+        <v>0.2094925673933972</v>
       </c>
       <c r="H8">
-        <v>0.4004583451435764</v>
+        <v>0.1710320436015778</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02290433048027651</v>
+        <v>0.01441539108822809</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8610305828508871</v>
+        <v>0.8008291338289268</v>
       </c>
       <c r="O8">
-        <v>1.177280044782364</v>
+        <v>0.7535702933152209</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9044491442074332</v>
+        <v>2.796869713406977</v>
       </c>
       <c r="C9">
-        <v>0.2164103471588135</v>
+        <v>0.6206592310493022</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8633592775955066</v>
+        <v>1.197109682944458</v>
       </c>
       <c r="F9">
-        <v>2.073230667863442</v>
+        <v>2.371098572388149</v>
       </c>
       <c r="G9">
-        <v>0.2365889381735542</v>
+        <v>0.2640350562282521</v>
       </c>
       <c r="H9">
-        <v>0.3943910497924179</v>
+        <v>0.1827554840183296</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02286110591126445</v>
+        <v>0.01711500521818365</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8766266995901901</v>
+        <v>0.8619466746448978</v>
       </c>
       <c r="O9">
-        <v>1.176897715459233</v>
+        <v>0.8945876666292349</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.064893091331385</v>
+        <v>3.315096046653764</v>
       </c>
       <c r="C10">
-        <v>0.2497015699131566</v>
+        <v>0.7239334171155178</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9125319068949409</v>
+        <v>1.415660714626597</v>
       </c>
       <c r="F10">
-        <v>2.150422525640693</v>
+        <v>2.780325986454955</v>
       </c>
       <c r="G10">
-        <v>0.241909776185139</v>
+        <v>0.3089957232937763</v>
       </c>
       <c r="H10">
-        <v>0.3911058357879398</v>
+        <v>0.194206290390639</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02292944514429962</v>
+        <v>0.01943433300114705</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8897498550976337</v>
+        <v>0.911441854100616</v>
       </c>
       <c r="O10">
-        <v>1.181692783589995</v>
+        <v>1.014456251801931</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.137700887438825</v>
+        <v>3.551560261190104</v>
       </c>
       <c r="C11">
-        <v>0.2647762359464423</v>
+        <v>0.7709578771348617</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9353215826878625</v>
+        <v>1.517386327093078</v>
       </c>
       <c r="F11">
-        <v>2.186888856881041</v>
+        <v>2.972689281106369</v>
       </c>
       <c r="G11">
-        <v>0.2446073002337243</v>
+        <v>0.3307437395168762</v>
       </c>
       <c r="H11">
-        <v>0.3898667043965105</v>
+        <v>0.2001347676177829</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02298251090132197</v>
+        <v>0.02057774667953893</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8960781867138365</v>
+        <v>0.9350860105923147</v>
       </c>
       <c r="O11">
-        <v>1.184986821095066</v>
+        <v>1.073228551989274</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.16524427444898</v>
+        <v>3.641237034487062</v>
       </c>
       <c r="C12">
-        <v>0.2704742797189965</v>
+        <v>0.7887757599110046</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9440121463445479</v>
+        <v>1.556287400180878</v>
       </c>
       <c r="F12">
-        <v>2.200892877802517</v>
+        <v>3.04654011842149</v>
       </c>
       <c r="G12">
-        <v>0.2456689326386652</v>
+        <v>0.3391864174774213</v>
       </c>
       <c r="H12">
-        <v>0.3894342576428187</v>
+        <v>0.2024925055066262</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02300578473407811</v>
+        <v>0.02102482649191728</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8985258166780454</v>
+        <v>0.9442133168364819</v>
       </c>
       <c r="O12">
-        <v>1.186394997375146</v>
+        <v>1.096158415689132</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.159313555023402</v>
+        <v>3.621917130456438</v>
       </c>
       <c r="C13">
-        <v>0.2692475729319312</v>
+        <v>0.7849378081733676</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9421377808210423</v>
+        <v>1.54789164576556</v>
       </c>
       <c r="F13">
-        <v>2.197868177090385</v>
+        <v>3.030588285113026</v>
       </c>
       <c r="G13">
-        <v>0.245438501172643</v>
+        <v>0.3373585705672326</v>
       </c>
       <c r="H13">
-        <v>0.389525755640264</v>
+        <v>0.2019795539230813</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02300063061584723</v>
+        <v>0.0209278896401166</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8979964025749325</v>
+        <v>0.9422396677270939</v>
       </c>
       <c r="O13">
-        <v>1.186084557490574</v>
+        <v>1.09118900914055</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.139967455713247</v>
+        <v>3.558935182264179</v>
       </c>
       <c r="C14">
-        <v>0.2652452281732565</v>
+        <v>0.7724235232726357</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9360353453452035</v>
+        <v>1.520578836354417</v>
       </c>
       <c r="F14">
-        <v>2.188037063810782</v>
+        <v>2.978744154671404</v>
       </c>
       <c r="G14">
-        <v>0.244693835221895</v>
+        <v>0.3314340458417462</v>
       </c>
       <c r="H14">
-        <v>0.3898303891093065</v>
+        <v>0.2003264245602168</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0229843618352632</v>
+        <v>0.02061423736437007</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8962785298841993</v>
+        <v>0.935833368120754</v>
       </c>
       <c r="O14">
-        <v>1.185099445524685</v>
+        <v>1.075101112645996</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.128113802397536</v>
+        <v>3.520375144052593</v>
       </c>
       <c r="C15">
-        <v>0.2627923099774989</v>
+        <v>0.764759698002166</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9323053233154326</v>
+        <v>1.503899927282092</v>
       </c>
       <c r="F15">
-        <v>2.182040639954948</v>
+        <v>2.94712286791389</v>
       </c>
       <c r="G15">
-        <v>0.2442429419251368</v>
+        <v>0.3278327330144748</v>
       </c>
       <c r="H15">
-        <v>0.3900217785145088</v>
+        <v>0.1993288070834751</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02297481128681866</v>
+        <v>0.02042399496800584</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8952329449862049</v>
+        <v>0.9319323103557764</v>
       </c>
       <c r="O15">
-        <v>1.184516999642199</v>
+        <v>1.0653365759145</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.060131191661128</v>
+        <v>3.299659496981178</v>
       </c>
       <c r="C16">
-        <v>0.2487149699502709</v>
+        <v>0.7208615141012729</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9110510238204483</v>
+        <v>1.409063116537496</v>
       </c>
       <c r="F16">
-        <v>2.148066616789748</v>
+        <v>2.767889012760293</v>
       </c>
       <c r="G16">
-        <v>0.2417390871764269</v>
+        <v>0.3076022541078629</v>
       </c>
       <c r="H16">
-        <v>0.3911919597403255</v>
+        <v>0.1938341059769044</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02292642101274467</v>
+        <v>0.01936150214900323</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8893434702001741</v>
+        <v>0.9099203266084999</v>
       </c>
       <c r="O16">
-        <v>1.181499968792508</v>
+        <v>1.010706080386257</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.018379078043893</v>
+        <v>3.164462155515594</v>
       </c>
       <c r="C17">
-        <v>0.2400608568329972</v>
+        <v>0.6939457431908806</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8981200448727407</v>
+        <v>1.351507166361117</v>
       </c>
       <c r="F17">
-        <v>2.127571259614371</v>
+        <v>2.65960226530899</v>
       </c>
       <c r="G17">
-        <v>0.2402742253854626</v>
+        <v>0.2955376269607228</v>
       </c>
       <c r="H17">
-        <v>0.3919752732322621</v>
+        <v>0.1906539440246746</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02290237743917345</v>
+        <v>0.01873327731611951</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.885822062884273</v>
+        <v>0.8967136659234853</v>
       </c>
       <c r="O17">
-        <v>1.179934676174014</v>
+        <v>0.9783228012184395</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9943476179778941</v>
+        <v>3.086766127283397</v>
       </c>
       <c r="C18">
-        <v>0.2350767043695328</v>
+        <v>0.6784684069304774</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8907220894651005</v>
+        <v>1.318616364289781</v>
       </c>
       <c r="F18">
-        <v>2.115910027996847</v>
+        <v>2.597895031369433</v>
       </c>
       <c r="G18">
-        <v>0.2394577348678837</v>
+        <v>0.2887189359167905</v>
       </c>
       <c r="H18">
-        <v>0.3924498430391878</v>
+        <v>0.1888919193195875</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02289061576399831</v>
+        <v>0.01838016423529965</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8838304095637852</v>
+        <v>0.8892230342622724</v>
       </c>
       <c r="O18">
-        <v>1.179139050459781</v>
+        <v>0.960092107078907</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9862081511008682</v>
+        <v>3.060470056190127</v>
       </c>
       <c r="C19">
-        <v>0.2333880452768256</v>
+        <v>0.6732285925422445</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8882240675863358</v>
+        <v>1.307515441936175</v>
       </c>
       <c r="F19">
-        <v>2.111983553590335</v>
+        <v>2.577097694206969</v>
       </c>
       <c r="G19">
-        <v>0.2391857517704636</v>
+        <v>0.2864303395354142</v>
       </c>
       <c r="H19">
-        <v>0.3926146490457114</v>
+        <v>0.1883065843310874</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02288698800111888</v>
+        <v>0.01826197836372856</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8831618796414347</v>
+        <v>0.8867046158024863</v>
       </c>
       <c r="O19">
-        <v>1.178887621777847</v>
+        <v>0.9539855361983314</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.022825406917832</v>
+        <v>3.178847118278043</v>
       </c>
       <c r="C20">
-        <v>0.2409827811434013</v>
+        <v>0.6968105390333506</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8994924703360141</v>
+        <v>1.357611627875443</v>
       </c>
       <c r="F20">
-        <v>2.129739860259406</v>
+        <v>2.671069116130809</v>
       </c>
       <c r="G20">
-        <v>0.2404274632181966</v>
+        <v>0.2968093027919565</v>
       </c>
       <c r="H20">
-        <v>0.3918894008000677</v>
+        <v>0.1909854659336645</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02290472279982936</v>
+        <v>0.01879929192977414</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8861934303507155</v>
+        <v>0.8981085389282839</v>
       </c>
       <c r="O20">
-        <v>1.1800904636072</v>
+        <v>0.981728696413569</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.145650628992655</v>
+        <v>3.577430653262297</v>
       </c>
       <c r="C21">
-        <v>0.2664210993029883</v>
+        <v>0.7760989436631291</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9378261328919706</v>
+        <v>1.528590554218482</v>
       </c>
       <c r="F21">
-        <v>2.190919401998769</v>
+        <v>2.99394373226329</v>
       </c>
       <c r="G21">
-        <v>0.2449114699311679</v>
+        <v>0.3331684246793145</v>
       </c>
       <c r="H21">
-        <v>0.3897399119752549</v>
+        <v>0.2008088509481922</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0229890539460591</v>
+        <v>0.02070597047888967</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8967817230177531</v>
+        <v>0.937710241754445</v>
       </c>
       <c r="O21">
-        <v>1.18538442658496</v>
+        <v>1.079807689889861</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.225763878981695</v>
+        <v>3.838718283219293</v>
       </c>
       <c r="C22">
-        <v>0.2829856840838545</v>
+        <v>0.8279834669921513</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.963232714947253</v>
+        <v>1.642574919651196</v>
       </c>
       <c r="F22">
-        <v>2.232040774884211</v>
+        <v>3.210892045218969</v>
       </c>
       <c r="G22">
-        <v>0.2480761242624396</v>
+        <v>0.3581497210807782</v>
       </c>
       <c r="H22">
-        <v>0.3885495426321484</v>
+        <v>0.2078910595597989</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02306270739433103</v>
+        <v>0.02203497583028735</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9040002322341962</v>
+        <v>0.9646110706526088</v>
       </c>
       <c r="O22">
-        <v>1.189781941610534</v>
+        <v>1.147870310278677</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.183021112850838</v>
+        <v>3.699181458502949</v>
       </c>
       <c r="C23">
-        <v>0.2741505460632538</v>
+        <v>0.800284215766311</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9496403823119834</v>
+        <v>1.581517129134966</v>
       </c>
       <c r="F23">
-        <v>2.209989259784066</v>
+        <v>3.094519099275828</v>
       </c>
       <c r="G23">
-        <v>0.2463655701283614</v>
+        <v>0.3446978864732557</v>
       </c>
       <c r="H23">
-        <v>0.3891652203658964</v>
+        <v>0.204047307550681</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02302169477701455</v>
+        <v>0.02131758678721951</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9001203774456741</v>
+        <v>0.9501563598636125</v>
       </c>
       <c r="O23">
-        <v>1.187348855107473</v>
+        <v>1.111159021208238</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.020815307524686</v>
+        <v>3.172343583096165</v>
       </c>
       <c r="C24">
-        <v>0.2405660065065547</v>
+        <v>0.6955153748138798</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8988718839173089</v>
+        <v>1.35485118494266</v>
       </c>
       <c r="F24">
-        <v>2.128759056484796</v>
+        <v>2.665883253726093</v>
       </c>
       <c r="G24">
-        <v>0.2403581044312517</v>
+        <v>0.2962340139625752</v>
       </c>
       <c r="H24">
-        <v>0.3919281482475441</v>
+        <v>0.190835379085712</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02290365604326183</v>
+        <v>0.0187694217162111</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8860254327648107</v>
+        <v>0.8974775998286901</v>
       </c>
       <c r="O24">
-        <v>1.180019707332491</v>
+        <v>0.980187690906007</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8452156840631346</v>
+        <v>2.606484574128842</v>
       </c>
       <c r="C25">
-        <v>0.2040912224809404</v>
+        <v>0.5826403595594343</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8456232885102395</v>
+        <v>1.118374882413747</v>
       </c>
       <c r="F25">
-        <v>2.045997381604039</v>
+        <v>2.225188500796989</v>
       </c>
       <c r="G25">
-        <v>0.2348731122920285</v>
+        <v>0.2484957060428314</v>
       </c>
       <c r="H25">
-        <v>0.3958267888412763</v>
+        <v>0.1791185537139341</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02285530151278792</v>
+        <v>0.0163305782060732</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8721140438009769</v>
+        <v>0.8446480323568863</v>
       </c>
       <c r="O25">
-        <v>1.176113209035009</v>
+        <v>0.8538091629955602</v>
       </c>
     </row>
   </sheetData>
